--- a/Mobile/coyni_mobile/resources/TestScript_customer_iOS3.0.xlsx
+++ b/Mobile/coyni_mobile/resources/TestScript_customer_iOS3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ideyalabs/Desktop/june14Automation/coyni-automation/Mobile/coyni_mobile/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29388A9-7DA2-A744-B734-692653D54E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3722DCD0-40A0-F44B-9A6C-33BD4A5E165C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="236">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -153,12 +153,6 @@
   </si>
   <si>
     <t>Verify Expired Cards</t>
-  </si>
-  <si>
-    <t>coyni_mobile.tests.TokenAccountTest,
-testfilters,
--ptransactionHeading,
--pfilterType</t>
   </si>
   <si>
     <t>coyni_mobile.tests.LoginTest,
@@ -357,67 +351,7 @@
 </t>
   </si>
   <si>
-    <t>verify Add Debit card In Payments</t>
-  </si>
-  <si>
     <t xml:space="preserve">Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">coyni_mobile.tests.CustomerProfileTest,
-testAddDebitCardInPaymentMethods,
--paddPaymentHeading,
--pcreditContent,
--pdebitContent,
--pvalidateAddress,
--pexpCardHeading,
--pnameOnCard,
--pvalidateCard,
--pcardNumber1,
--perror,
--pcardNumber,
--pcardExp,
--pcvvCVC,
--paddressHeading,
--paddline1,
--paddline2,
--pcity,
--pstate,
--pzipcode,
--pexpCountry,
--pvalidateExistingCard,
--ptoastMessage,
--pvalidateAuthorization,
--ppreAuthHeading,
--pamount,
--pvalidateCardNums,
--pcardNumbers,
--pValidateFifthCard,
--perrMsg,
--pelementName,
--pdescription,
--psucessDesc
-</t>
-  </si>
-  <si>
-    <t>verify Edit Debit Card</t>
-  </si>
-  <si>
-    <t>coyni_mobile.tests.CustomerProfileTest,
-testEditDebitCard,
--ppaymentHeading,
--plast4Digits,
--pcardExp,
--paddline1,
--paddline2,
--pcity,
--pstate,
--pzipcode</t>
-  </si>
-  <si>
-    <t>verify Add Debit cards In Payments</t>
-  </si>
-  <si>
-    <t>verify Delete Debit Card In PaymentMethods</t>
   </si>
   <si>
     <t>coyni_mobile.tests.CustomerProfileTest,
@@ -505,88 +439,6 @@
 </t>
   </si>
   <si>
-    <t>Verify Add Debit Cards Navigation In Payment Methods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coyni_mobile.tests.CustomerProfileTest,
-testDebitCardView,
--paddPaymentHeading,
--pexpCardHeading,
--pnameOnCard,
--pcardNumber,
--pcardExp,
--pcvvCVC,
--paddressHeading,
--paddline1,
--paddline2,
--pcity,
--pstate,
--pzipcode,
--pexpCountry,
--ppreAuthHeading,
--pdescription
-</t>
-  </si>
-  <si>
-    <t>verify Add Credit card In Payments</t>
-  </si>
-  <si>
-    <t>coyni_mobile.tests.CustomerProfileTest,
-testAddCreditCardInPaymentMethods,
--paddPaymentHeading,
--pcreditContent,
--pdebitContent,
--pvalidateAddress,
--pexpCardHeading,
--pnameOnCard,
--pvalidateCard,
--pcardNumber1,
--perror,
--pcardNumber,
--pcardExp,
--pcvvCVC,
--paddressHeading,
--paddline1,
--paddline2,
--pcity,
--pstate,
--pzipcode,
--pexpCountry,
--pvalidateExistingCard,
--ptoastMessage,
--pvalidateAuthorization,
--ppreAuthHeading,
--pamount,
--pvalidateCardNums,
--pcardNumbers,
--pValidateFifthCard,
--perrMsg,
--pelementName,
--pdescription,
--psucessDesc</t>
-  </si>
-  <si>
-    <t>verify Edit Credit Card</t>
-  </si>
-  <si>
-    <t>coyni_mobile.tests.CustomerProfileTest,
-testEditCreditCard,
--ppaymentHeading,
--plast4Digits,
--pcardExp,
--paddline1,
--paddline2,
--pcity,
--pstate,
--pzipcode</t>
-  </si>
-  <si>
-    <t>verify Add Credit cards In Payments</t>
-  </si>
-  <si>
-    <t>verify Delete Credit Card In PaymentMethods</t>
-  </si>
-  <si>
     <t>coyni_mobile.tests.CustomerProfileTest,
 testDeleteCreditCard,
 -ppaymentHeading,
@@ -657,48 +509,7 @@
 </t>
   </si>
   <si>
-    <t>Verify Add Credit Cards Navigation In Payment Methods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coyni_mobile.tests.CustomerProfileTest,
-testCreditCardView,
--paddPaymentHeading,
--pexpCardHeading,
--pnameOnCard,
--pcardNumber,
--pcardExp,
--pcvvCVC,
--paddressHeading,
--paddline1,
--paddline2,
--pcity,
--pstate,
--pzipcode,
--pexpCountry,
--ppreAuthHeading,
--pdescription
-</t>
-  </si>
-  <si>
-    <t>Verify BuyTokens with ExistingMx Bank</t>
-  </si>
-  <si>
     <t xml:space="preserve">Buy Tokens </t>
-  </si>
-  <si>
-    <t>coyni_mobile.tests.TokenAccountTest,
-testBuyTokenWithBank,
--plast4Digits,
--pcvvPopupHeading,
--pcvvCVC,
--pbuyTokenHeading,
--ppaymentMethod,
--pamount,
--ppreviewHeading,
--ppin,
--ppinHeading,
--pvalidateExistingAccounts,
--pvalidateBuyToken</t>
   </si>
   <si>
     <t>verify MX Bank With more than the limits in BuyTokens</t>
@@ -721,160 +532,19 @@
 </t>
   </si>
   <si>
-    <t>verify Add debit Card Number in Place of Credit Card and Verify Error</t>
-  </si>
-  <si>
-    <t>coyni_mobile.tests.CustomerProfileTest,
-testAddCreditCardInBuyTokenss,
--paddPaymentHeading,
--pcreditContent,
--pdebitContent,
--pvalidateAddress,
--pexpCardHeading,
--pnameOnCard,
--pvalidateCard,
--pcardNumber1,
--perror,
--pcardNumber,
--pcardExp,
--pcvvCVC,
--paddressHeading,
--paddline1,
--paddline2,
--pcity,
--pstate,
--pzipcode,
--pexpCountry,
--pvalidateExistingCard,
--ptoastMessage,
--pvalidateAuthorization,
--ppreAuthHeading,
--pamount,
--pvalidateCardNums,
--pcardNumbers,
--pValidateFifthCard,
--perrMsg,
--pelementName,
--pdescription,
--psucessDesc</t>
-  </si>
-  <si>
-    <t>verify Add Credit card In Buy Token and Verify Buy Token Transactions</t>
-  </si>
-  <si>
-    <t>coyni_mobile.tests.TokenAccountTest,
-testBuyTokenWithCreditCard,
--plast4Digits,
--pcvvPopupHeading,
--pcvvCVC,
--pbuyTokenHeading,
--ppaymentMethod,
--pamount,
--ppreviewHeading,
--ppin,
--ppinHeading,
--pvalidateExistingAccounts,
--pvalidateBuyToken</t>
-  </si>
-  <si>
-    <t>Verify Buy Tokens with Existing Credit Card</t>
-  </si>
-  <si>
     <t>verify Credit Card With more than the limits in BuyTokens</t>
   </si>
   <si>
     <t>Verify Delete Credit card Added in Buy Tokens</t>
   </si>
   <si>
-    <t>verify Add Credit Card Number in Place of Debit Card and Verify Error</t>
-  </si>
-  <si>
-    <t>coyni_mobile.tests.CustomerProfileTest,
-testAddDebitCardInBuyTokens,
--paddPaymentHeading,
--pcreditContent,
--pdebitContent,
--pvalidateAddress,
--pexpCardHeading,
--pnameOnCard,
--pvalidateCard,
--pcardNumber1,
--perror,
--pcardNumber,
--pcardExp,
--pcvvCVC,
--paddressHeading,
--paddline1,
--paddline2,
--pcity,
--pstate,
--pzipcode,
--pexpCountry,
--pvalidateExistingCard,
--ptoastMessage,
--pvalidateAuthorization,
--ppreAuthHeading,
--pamount,
--pvalidateCardNums,
--pcardNumbers,
--pValidateFifthCard,
--perrMsg,
--pelementName,
--pdescription,
--psucessDesc</t>
-  </si>
-  <si>
-    <t>verify Add Debit card In Buy Token and Verify Buy Token Transactions</t>
-  </si>
-  <si>
-    <t>Verify Buy Tokens with Existing Debit Card</t>
-  </si>
-  <si>
-    <t>coyni_mobile.tests.TokenAccountTest,
-testBuyTokenWithDebitCard,
--plast4Digits,
--pcvvPopupHeading,
--pcvvCVC,
--pbuyTokenHeading,
--ppaymentMethod,
--pamount,
--ppreviewHeading,
--ppin,
--ppinHeading,
--pvalidateExistingAccounts,
--pvalidateBuyToken</t>
-  </si>
-  <si>
     <t>verify Debit Card With more than the limits in BuyTokens</t>
   </si>
   <si>
     <t>Verify Delete Debit card Added in Buy Tokens</t>
   </si>
   <si>
-    <t>verify  Withdraw Transactions with existing MX Bank</t>
-  </si>
-  <si>
     <t>Withdraw-InstantPay</t>
-  </si>
-  <si>
-    <t>coyni_mobile.tests.TokenAccountTest,
-testWithDrawTOUSDTokens,
--pwithdrawMethodHeading,
--pwithdrawPopupHeading,
--plast4Digits,
--pwithdrawTokenHeading,
--pamount,
--pmessage,
--ppreviewHeading,
--ppinHeading,
--ppin,
--pvalidateWTU1,
--pvalidateWithdrawMethod,
--pvalidatebanking,
--pvalidateDebitCard,
--pvalidateCreditCard,
--pvalidateExistingAccounts,
--pvalidateWithdrawToken</t>
   </si>
   <si>
     <t>verify MX Bank withdraw with daily and weekly limit error messages</t>
@@ -892,72 +562,13 @@
 </t>
   </si>
   <si>
-    <t>verify Instant Pay Withdraw Transactions By adding Debit Card</t>
-  </si>
-  <si>
-    <t>coyni_mobile.tests.CustomerProfileTest,
-testAddDebitCardINwithdrawToUSd,
--paddPaymentHeading,
--pcreditContent,
--pdebitContent,
--pvalidateAddress,
--pexpCardHeading,
--pnameOnCard,
--pvalidateCard,
--pcardNumber1,
--perror,
--pcardNumber,
--pcardExp,
--pcvvCVC,
--paddressHeading,
--paddline1,
--paddline2,
--pcity,
--pstate,
--pzipcode,
--pexpCountry,
--pvalidateExistingCard,
--ptoastMessage,
--pvalidateAuthorization,
--ppreAuthHeading,
--pamount,
--pvalidateCardNums,
--pcardNumbers,
--pValidateFifthCard,
--perrMsg,
--pelementName,
--pdescription,
--psucessDesc</t>
-  </si>
-  <si>
-    <t>verify Instant Pay Withdraw Transactions with existing Card</t>
-  </si>
-  <si>
     <t>verify Instant Pay withdraw with daily and weekly limit error messages</t>
   </si>
   <si>
     <t>veridy Delete Debit Card In PaymentMethods After Withdrawing amount</t>
   </si>
   <si>
-    <t>Verify Gift Card</t>
-  </si>
-  <si>
     <t>Withdraw-Gift Card</t>
-  </si>
-  <si>
-    <t>coyni_mobile.tests.TokenAccountTest,
-testGiftCard,
--pwithdrawMethodHeading,
--pselectGiftHeading,
--pgiftCard,
--pgiftPageHeading,
--pamount,
--pfirstName,
--plastName,
--pemail,
--poverViewHeading,
--ppinHeading,
--ppin</t>
   </si>
   <si>
     <t>Verify Gift Card with Invalid Data</t>
@@ -1108,46 +719,7 @@
 testNotifications</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify All Filters </t>
-  </si>
-  <si>
-    <t>testdata_iOSCustomer2.3.xls,filters</t>
-  </si>
-  <si>
     <t>filters</t>
-  </si>
-  <si>
-    <t>Verify Filters with transaction Type, subtype , date  and amount</t>
-  </si>
-  <si>
-    <t>coyni_mobile.tests.TokenAccountTest,
-testFilterWithCalendar,
--ptransactionHeading,
--pfilterType,
--pfilterType1,
--pfilterType2,
--pfromAmount,
--ptoAmount,
--pfromDate,
--ptoDate</t>
-  </si>
-  <si>
-    <t>Verify Filters With Invalid Amount</t>
-  </si>
-  <si>
-    <t>coyni_mobile.tests.TokenAccountTest,
-testFilterWithInvalidData,
--ptransactionHeading,
--pfilterType,
--pfromAmount,
--ptoAmount,
--pfromAmount1,
--pfromAmount2,
--ptoAmount1,
--ptoAmount2,
--perrMsg1,
--perrMsg2,
--perrMsg3</t>
   </si>
   <si>
     <t>coyni_mobile.tests.LoginTest,
@@ -1160,20 +732,6 @@
   </si>
   <si>
     <t>verify Login and Field Validations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coyni_mobile.tests.LoginTest,
-testLoginWithInvalidCredentials,
--pemail,
--ppassword,
--pdescription,
--pvalidatePassword,
--perrMessage,
--pelementName,
--ppopUpMsg,
--pValidateUnregisteredEmail,
--pdescription
-</t>
   </si>
   <si>
     <t>verify forgot password and Field Validations</t>
@@ -1523,6 +1081,486 @@
   </si>
   <si>
     <t>testdata_customer_iOS3.0xls,profile</t>
+  </si>
+  <si>
+    <t>Verify Add Debit Card in Payment Methods</t>
+  </si>
+  <si>
+    <t>testdata_customer_iOS3.0xls,PaymentMethods</t>
+  </si>
+  <si>
+    <t>Profile-PaymentMethods-Add Debit Card</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.CustomerProfileTest,
+testAddDebitCardInPaymentMethods,
+-pcontent,
+-pvalidateCard,
+-pcardNumber1,
+-perror,
+-pvalidateAddress,
+-pvalidateCardNums,
+-pcardNumbers,
+-pValidateFifthCard,
+-perrMsg,
+-pAddCardHeading,
+-pdescription,
+-pnameOnCard,
+-pcardNumber,
+-pcardExp,
+-pcvvCVC,
+-pbillingAddressDesc,
+-pvalidateExistingCard,
+-ptoastMessage,
+-pvalidateAuthorization,
+-ppreAuthHeading,
+-ppreAuthDescription,
+-pamount,
+-psucessHeading,
+-psucessDescription</t>
+  </si>
+  <si>
+    <t>Verify Edit Debit Card in Payment Methods</t>
+  </si>
+  <si>
+    <t>Profile-PaymentMethods-Edit Debit Card</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.CustomerProfileTest,
+testEditDebitCardInPaymentMethods,
+-pexpHeading,
+-plast4Digits,
+-pvalidateAddress,
+-pexistCardName,
+-pexistCardNumber,
+-pexpCardExp,
+-pexistAddress,
+-pnameOnCard,
+-pcardExp,
+-pcvvCVC,
+-pAddCardHeading,
+-pbillingAddressDesc,
+-pCountry,
+-paddLine1,
+-paddLine2,
+-pcity,
+-pstate,
+-pzipcode,
+-ptoastMessage,
+-pvalidateNavigation</t>
+  </si>
+  <si>
+    <t>Verify Delete Debit Card in Payment Methods</t>
+  </si>
+  <si>
+    <t>Profile-PaymentMethods-Delete Debit Card</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.CustomerProfileTest,
+testDeleteDebitCardInPaymentMethods,
+-pexpHeading,
+-plast4Digits,
+-pvalidateCardDelete,
+-pheading,
+-pvalidateNo,
+-pvalidateYes,
+-pvalidateAddNewPayment,
+-pcardNumbers,
+-pvalidateBankDelete</t>
+  </si>
+  <si>
+    <t>Verify Add Credit Card in Payment Methods</t>
+  </si>
+  <si>
+    <t>Profile-PaymentMethods-Add Credit Card</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.CustomerProfileTest,
+testAddCreditCardInPaymentMethods,
+-pcontent,
+-pvalidateCard,
+-pcardNumber1,
+-perror,
+-pvalidateAddress,
+-pvalidateCardNums,
+-pcardNumbers,
+-pValidateFifthCard,
+-perrMsg,
+-pAddCardHeading,
+-pdescription,
+-pnameOnCard,
+-pcardNumber,
+-pcardExp,
+-pcvvCVC,
+-pbillingAddressDesc,
+-pvalidateExistingCard,
+-ptoastMessage,
+-pvalidateAuthorization,
+-ppreAuthHeading,
+-ppreAuthDescription,
+-pamount,
+-psucessHeading,
+-psucessDescription</t>
+  </si>
+  <si>
+    <t>Profile-PaymentMethods-Edit Credit Card</t>
+  </si>
+  <si>
+    <t>Verify Edit Credit Card in Payment Methods</t>
+  </si>
+  <si>
+    <t>Verify Delete Credit Card in Payment Methods</t>
+  </si>
+  <si>
+    <t>Profile-PaymentMethods-Delete Credit Card</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.CustomerProfileTest,
+testEditCreditCardInPaymentMethods,
+-pexpHeading,
+-plast4Digits,
+-pvalidateAddress,
+-pexistCardName,
+-pexistCardNumber,
+-pexpCardExp,
+-pexistAddress,
+-pnameOnCard,
+-pcardExp,
+-pcvvCVC,
+-pAddCardHeading,
+-pbillingAddressDesc,
+-pCountry,
+-paddLine1,
+-paddLine2,
+-pcity,
+-pstate,
+-pzipcode,
+-ptoastMessage,
+-pvalidateNavigation</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.CustomerProfileTest,
+testDeleteCreditCardInPaymentMethods,
+-pexpHeading,
+-plast4Digits,
+-pvalidateCardDelete,
+-pheading,
+-pvalidateNo,
+-pvalidateYes,
+-pvalidateAddNewPayment,
+-pcardNumbers,
+-pvalidateBankDelete</t>
+  </si>
+  <si>
+    <t>verify BuyToken Bank Account Transaction with Existing Payment Method.</t>
+  </si>
+  <si>
+    <t>Buy Tokens -Bank Acoount</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.DashBoardTest,
+testBuyTokenWithBank,
+-pvalidateExistingAccounts,
+-pexpHeading,
+-pbuyTokenDescription,
+-plast4Digits,
+-pcvvPopupHeading,
+-pcvvCVC,
+-pvalidateBuyToken,
+-pamount,
+-ppopupHeading,
+-ppinHeading,
+-ppin,
+-ptransactionSuccessHeading,
+-ptransactionSucessDescription,
+-pvalidateViewTransaction,
+-pvalidateDone</t>
+  </si>
+  <si>
+    <t>Verify Add Credit Card and do Buy Token Transactions When no Payment available</t>
+  </si>
+  <si>
+    <t>Buy Tokens - Credit Card</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.CustomerProfileTest,
+testAddCreditCardInBuyTokenss,
+-pcontent,
+-pvalidateCard,
+-pcardNumber1,
+-perror,
+-pvalidateAddress,
+-pvalidateCardNums,
+-pcardNumbers,
+-pValidateFifthCard,
+-perrMsg,
+-pAddCardHeading,
+-pdescription,
+-pnameOnCard,
+-pcardNumber,
+-pcardExp,
+-pcvvCVC,
+-pbillingAddressDesc,
+-pvalidateExistingCard,
+-ptoastMessage,
+-pvalidateAuthorization,
+-ppreAuthHeading,
+-ppreAuthDescription,
+-pamount,
+-psucessHeading,
+-psucessDescription</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.DashBoardTest,
+testBuyTokenWithCreditCard,
+-pvalidateExistingAccounts,
+-pexpHeading,
+-pbuyTokenDescription,
+-plast4Digits,
+-pcvvPopupHeading,
+-pcvvCVC,
+-pvalidateBuyToken,
+-pamount,
+-ppopupHeading,
+-ppinHeading,
+-ppin,
+-ptransactionSuccessHeading,
+-ptransactionSucessDescription,
+-pvalidateViewTransaction,
+-pvalidateDone</t>
+  </si>
+  <si>
+    <t>verify BuyToken Credit Card Transaction with Existing Payment Method.</t>
+  </si>
+  <si>
+    <t>Verify Add Debit Card and do Buy Token Transactions When no Payment available</t>
+  </si>
+  <si>
+    <t>Buy Tokens -Debit Card</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.CustomerProfileTest,
+testAddDebitCardInBuyTokens,
+-pcontent,
+-pvalidateCard,
+-pcardNumber1,
+-perror,
+-pvalidateAddress,
+-pvalidateCardNums,
+-pcardNumbers,
+-pValidateFifthCard,
+-perrMsg,
+-pAddCardHeading,
+-pdescription,
+-pnameOnCard,
+-pcardNumber,
+-pcardExp,
+-pcvvCVC,
+-pbillingAddressDesc,
+-pvalidateExistingCard,
+-ptoastMessage,
+-pvalidateAuthorization,
+-ppreAuthHeading,
+-ppreAuthDescription,
+-pamount,
+-psucessHeading,
+-psucessDescription</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.DashBoardTest,
+testBuyTokenWithDebitCard,
+-pvalidateExistingAccounts,
+-pexpHeading,
+-pbuyTokenDescription,
+-plast4Digits,
+-pcvvPopupHeading,
+-pcvvCVC,
+-pvalidateBuyToken,
+-pamount,
+-ppopupHeading,
+-ppinHeading,
+-ppin,
+-ptransactionSuccessHeading,
+-ptransactionSucessDescription,
+-pvalidateViewTransaction,
+-pvalidateDone</t>
+  </si>
+  <si>
+    <t>verify BuyToken Debit Card Transaction with Existing Payment Method.</t>
+  </si>
+  <si>
+    <t>verify Withdraw Bank Account Transaction with Existing Payment Method.</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.DashBoardTest,
+testWithdrawTokenWithBankAccount,
+-pvalidateExistingAccounts,
+-pexpHeading,
+-pdescription,
+-pbankDescription,
+-pwithdrawPopupHeading,
+-plast4Digits,
+-pdebitDescription,
+-pvalidateWithdrawToken,
+-pwithdrawTokenHeading,
+-pamount,
+-pmessage,
+-ppopupHeading,
+-ppinHeading,
+-ppin,
+-ptransactionSuccessHeading,
+-ptransactionSucessDescription,
+-pvalidateViewTransaction,
+-pvalidateDone</t>
+  </si>
+  <si>
+    <t>Verify Add Debit Card and do WIthdraw Transactions When no Payment available</t>
+  </si>
+  <si>
+    <t>Withdraw-ExternalBank</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.CustomerProfileTest,
+testAddDebitCardINwithdrawToUSd,
+-paddInstantPayHeading,
+-pinstantPayDescription,
+-pcontent,
+-pvalidateCard,
+-pcardNumber1,
+-perror,
+-pvalidateAddress,
+-pvalidateCardNums,
+-pcardNumbers,
+-pValidateFifthCard,
+-pAddCardHeading,
+-pdescription,
+-pnameOnCard,
+-pcardNumber,
+-pcardExp,
+-pcvvCVC,
+-pbillingAddressDesc,
+-pvalidateExistingCard,
+-ptoastMessage,
+-pvalidateAuthorization,
+-ppreAuthHeading,
+-ppreAuthDescription,
+-pamount,
+-psucessHeading,
+-psucessDescription</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.DashBoardTest,
+testWithdrawTokenWithDebitCard,
+-pvalidateExistingAccounts,
+-pexpHeading,
+-pdescription,
+-pbankDescription,
+-pwithdrawPopupHeading,
+-plast4Digits,
+-pdebitDescription,
+-pvalidateWithdrawToken,
+-pwithdrawTokenHeading,
+-pamount,
+-pmessage,
+-ppopupHeading,
+-ppinHeading,
+-ppin,
+-ptransactionSuccessHeading,
+-ptransactionSucessDescription,
+-pvalidateViewTransaction,
+-pvalidateDone</t>
+  </si>
+  <si>
+    <t>verify Withdraw Token  InstantPay Transaction with Existing Payment Method.</t>
+  </si>
+  <si>
+    <t>verify Purchasing a Gift Card</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.DashBoardTest,
+testGiftCard,
+-pexpHeading,
+-pdescription,
+-ppurchaseGiftHeading,
+-pgiftCard,
+-pamount,
+-pfirstName,
+-plastName,
+-pemail,
+-ppopupHeading,
+-ppinHeading,
+-ppin,
+-ptransactionSuccessHeading,
+-ptransactionSucessDescription,
+-pvalidateViewTransaction,
+-pvalidateDone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Filters </t>
+  </si>
+  <si>
+    <t>testdata_customer_iOS3.0xls,tokenAccount</t>
+  </si>
+  <si>
+    <t>testdata_customer_iOS3.0xls,filters</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.DashBoardTest,
+testfilters,
+-ptransactionHeading,
+-pvalidateFilterType,
+-pfilterType,
+-pfilterType1</t>
+  </si>
+  <si>
+    <t>Verify  Filters with All types</t>
+  </si>
+  <si>
+    <t>Verify Filters with invalid data</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.DashBoardTest,
+testFilterWithCalendar,
+-ptransactionHeading,
+-pfilterType,
+-pfilterType1,
+-pfilterType2,
+-pfilterType3,
+-pfilterType4,
+-pfromAmount,
+-ptoAmount</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.DashBoardTest,
+testFilterWithInvalidData,
+-ptransactionHeading,
+-pfromAmount,
+-ptoAmount,
+-pfromAmount1,
+-pfromAmount2,
+-ptoAmount1,
+-ptoAmount2,
+-perrMsg1,
+-perrMsg2,
+-perrMsg3</t>
+  </si>
+  <si>
+    <t>testdata_customer_iOS3.0.xls,login</t>
+  </si>
+  <si>
+    <t>coyni_mobile.tests.LoginTest,
+testLoginWithInvalidCredentials,
+-pemail,
+-ppassword,
+-pdescription,
+-pvalidatePassword,
+-perrMessage,
+-pelementName,
+-ppopUpMsg,
+-pValidateUnregisteredEmail</t>
   </si>
 </sst>
 </file>
@@ -1577,12 +1615,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1613,7 +1657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1669,6 +1713,31 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1985,10 +2054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B5A830-0A38-42CE-920B-F809AB40B2F3}">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2047,13 +2116,13 @@
     </row>
     <row r="2" spans="1:12" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>10</v>
@@ -2068,20 +2137,20 @@
         <v>20</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:12" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -2096,7 +2165,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>22</v>
@@ -2105,13 +2174,13 @@
     </row>
     <row r="4" spans="1:12" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>10</v>
@@ -2126,20 +2195,20 @@
         <v>20</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:12" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -2154,22 +2223,22 @@
         <v>20</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:12" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -2184,7 +2253,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="9"/>
@@ -2194,10 +2263,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
@@ -2206,24 +2275,24 @@
         <v>9</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>10</v>
@@ -2238,10 +2307,10 @@
         <v>20</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" customFormat="1" ht="192" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" customFormat="1" ht="160" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -2249,7 +2318,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
@@ -2264,18 +2333,18 @@
         <v>17</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>164</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:12" customFormat="1" ht="176" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
@@ -2287,21 +2356,21 @@
         <v>23</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:12" customFormat="1" ht="140" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>10</v>
@@ -2310,24 +2379,24 @@
         <v>9</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:12" customFormat="1" ht="240" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>8</v>
@@ -2342,19 +2411,19 @@
         <v>15</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:12" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>10</v>
@@ -2369,19 +2438,19 @@
         <v>15</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:12" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>10</v>
@@ -2396,19 +2465,19 @@
         <v>17</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:12" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>10</v>
@@ -2420,21 +2489,21 @@
         <v>23</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:12" customFormat="1" ht="98" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>10</v>
@@ -2446,24 +2515,24 @@
         <v>9</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:9" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>8</v>
@@ -2475,24 +2544,24 @@
         <v>9</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:9" customFormat="1" ht="224" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>10</v>
@@ -2504,24 +2573,24 @@
         <v>23</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:9" customFormat="1" ht="154" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>10</v>
@@ -2536,21 +2605,21 @@
         <v>24</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:9" customFormat="1" ht="98" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>8</v>
@@ -2562,24 +2631,24 @@
         <v>9</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:9" customFormat="1" ht="210" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>10</v>
@@ -2591,24 +2660,24 @@
         <v>23</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:9" customFormat="1" ht="140" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>8</v>
@@ -2620,24 +2689,24 @@
         <v>9</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:9" customFormat="1" ht="182" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>10</v>
@@ -2649,24 +2718,24 @@
         <v>2</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:9" customFormat="1" ht="126" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>8</v>
@@ -2678,24 +2747,24 @@
         <v>9</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:9" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>8</v>
@@ -2707,24 +2776,24 @@
         <v>9</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:9" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>8</v>
@@ -2736,24 +2805,24 @@
         <v>9</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:9" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>8</v>
@@ -2765,24 +2834,24 @@
         <v>9</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:9" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>8</v>
@@ -2794,24 +2863,24 @@
         <v>9</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:9" customFormat="1" ht="176" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>8</v>
@@ -2823,24 +2892,24 @@
         <v>9</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:9" customFormat="1" ht="176" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>8</v>
@@ -2852,24 +2921,24 @@
         <v>9</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:9" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>8</v>
@@ -2881,24 +2950,24 @@
         <v>9</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:9" customFormat="1" ht="192" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>8</v>
@@ -2910,24 +2979,24 @@
         <v>9</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:10" customFormat="1" ht="208" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>8</v>
@@ -2945,18 +3014,18 @@
         <v>19</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:10" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>8</v>
@@ -2968,24 +3037,24 @@
         <v>9</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:10" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>8</v>
@@ -2997,24 +3066,24 @@
         <v>9</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:10" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>10</v>
@@ -3032,76 +3101,76 @@
         <v>19</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
-        <v>63</v>
+      <c r="A37" t="s">
+        <v>184</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>19</v>
+        <v>51</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" customFormat="1" ht="160" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" customFormat="1" ht="350" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
-        <v>68</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" customFormat="1" ht="176" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>191</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>10</v>
@@ -3112,25 +3181,25 @@
       <c r="F39" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" customFormat="1" ht="128" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>69</v>
-      </c>
       <c r="B40" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>10</v>
@@ -3139,59 +3208,59 @@
         <v>9</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" customFormat="1" ht="84" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H41" s="15" t="s">
         <v>19</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>9</v>
@@ -3200,24 +3269,24 @@
         <v>9</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H42" s="15" t="s">
         <v>19</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>10</v>
@@ -3226,59 +3295,59 @@
         <v>9</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H43" s="15" t="s">
         <v>19</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" customFormat="1" ht="256" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>10</v>
+        <v>57</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H44" s="15" t="s">
         <v>19</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" customFormat="1" ht="256" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>8</v>
@@ -3287,201 +3356,201 @@
         <v>9</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>19</v>
+        <v>51</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" customFormat="1" ht="288" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" customFormat="1" ht="350" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>8</v>
+        <v>185</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A47" s="18" t="s">
-        <v>82</v>
+        <v>23</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" customFormat="1" ht="176" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>199</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" customFormat="1" ht="160" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H48" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I48" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" customFormat="1" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="18" t="s">
-        <v>86</v>
+      <c r="I48" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>67</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H49" s="15" t="s">
+      <c r="E50" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I49" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" customFormat="1" ht="128" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="I50" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" customFormat="1" ht="256" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>10</v>
+        <v>57</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H51" s="15" t="s">
         <v>19</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:11" customFormat="1" ht="70" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>8</v>
@@ -3493,7 +3562,7 @@
         <v>9</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H52" s="15" t="s">
         <v>27</v>
@@ -3502,222 +3571,228 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:11" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="28" customFormat="1" ht="192" x14ac:dyDescent="0.2">
+      <c r="A54" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H53" s="15" t="s">
+      <c r="E54" s="24">
+        <v>1</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I53" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" customFormat="1" ht="256" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" s="14" t="s">
+      <c r="I54" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="J54" s="27"/>
+    </row>
+    <row r="55" spans="1:11" s="28" customFormat="1" ht="192" x14ac:dyDescent="0.2">
+      <c r="A55" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="J55" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D56" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" customFormat="1" ht="288" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>95</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" customFormat="1" ht="70" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>75</v>
+      <c r="E56" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="30" t="s">
+        <v>207</v>
       </c>
       <c r="H56" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I56" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+      <c r="I56" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="K56" s="32"/>
+    </row>
+    <row r="57" spans="1:11" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D57" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="13" t="s">
+      <c r="E57" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>99</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="J57" s="8"/>
     </row>
     <row r="58" spans="1:11" customFormat="1" ht="192" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="7">
-        <v>1</v>
+      <c r="E58" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="H58" s="10" t="s">
         <v>19</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="J58" s="8"/>
     </row>
-    <row r="59" spans="1:11" customFormat="1" ht="192" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
-        <v>100</v>
+    <row r="59" spans="1:11" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A59" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>23</v>
+        <v>57</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="J59" s="8" t="s">
-        <v>22</v>
+        <v>80</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:11" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>58</v>
+        <v>226</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>8</v>
@@ -3729,24 +3804,27 @@
         <v>9</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A61" s="18" t="s">
-        <v>105</v>
+        <v>27</v>
+      </c>
+      <c r="I60" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>215</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>58</v>
+        <v>226</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>8</v>
@@ -3758,90 +3836,86 @@
         <v>9</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="H61" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I61" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>106</v>
-      </c>
+      <c r="I61" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J61" s="12"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="1:11" customFormat="1" ht="208" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>107</v>
+    <row r="62" spans="1:11" customFormat="1" ht="192" x14ac:dyDescent="0.2">
+      <c r="A62" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="H62" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I62" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="J62" s="8"/>
-    </row>
-    <row r="63" spans="1:11" customFormat="1" ht="192" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
-        <v>108</v>
+      <c r="I62" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A63" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>23</v>
+        <v>57</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="J63" s="8"/>
-    </row>
-    <row r="64" spans="1:11" customFormat="1" ht="128" x14ac:dyDescent="0.2">
-      <c r="A64" s="18" t="s">
-        <v>109</v>
+        <v>80</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>67</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D64" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E64" s="13" t="s">
@@ -3851,24 +3925,24 @@
         <v>9</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="H64" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I64" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A65" s="18" t="s">
-        <v>110</v>
+      <c r="I64" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" customFormat="1" ht="320" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>216</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>58</v>
+        <v>226</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>8</v>
@@ -3880,27 +3954,28 @@
         <v>9</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A66" s="18" t="s">
-        <v>112</v>
+        <v>27</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J65" s="8"/>
+    </row>
+    <row r="66" spans="1:11" customFormat="1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>89</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>58</v>
+        <v>226</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>9</v>
@@ -3909,91 +3984,94 @@
         <v>9</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H66" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="J66" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="K66" s="8"/>
-    </row>
-    <row r="67" spans="1:11" customFormat="1" ht="208" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
-        <v>113</v>
+        <v>90</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>218</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D67" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D67" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E67" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="7" t="s">
+      <c r="E67" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>19</v>
+        <v>88</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="J67" s="8"/>
-    </row>
-    <row r="68" spans="1:11" customFormat="1" ht="192" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
-        <v>115</v>
+        <v>220</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="K67" s="8"/>
+    </row>
+    <row r="68" spans="1:11" customFormat="1" ht="320" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>222</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D68" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="J68" s="8"/>
+    </row>
+    <row r="69" spans="1:11" customFormat="1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" customFormat="1" ht="128" x14ac:dyDescent="0.2">
-      <c r="A69" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>8</v>
-      </c>
       <c r="E69" s="13" t="s">
         <v>9</v>
       </c>
@@ -4001,27 +4079,28 @@
         <v>9</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H69" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I69" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="I69" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J69" s="12"/>
+    </row>
+    <row r="70" spans="1:11" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>8</v>
+        <v>226</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>9</v>
@@ -4030,27 +4109,27 @@
         <v>9</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H70" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I70" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" customFormat="1" ht="288" x14ac:dyDescent="0.2">
+      <c r="I70" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>117</v>
+        <v>223</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>9</v>
@@ -4059,25 +4138,25 @@
         <v>9</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="H71" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>119</v>
+        <v>224</v>
       </c>
       <c r="J71" s="8"/>
     </row>
-    <row r="72" spans="1:11" customFormat="1" ht="160" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" customFormat="1" ht="256" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>10</v>
@@ -4086,30 +4165,27 @@
         <v>9</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="J72" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" customFormat="1" ht="176" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>8</v>
@@ -4121,28 +4197,24 @@
         <v>9</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="J73" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="K73" s="8"/>
-    </row>
-    <row r="74" spans="1:11" customFormat="1" ht="288" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>8</v>
@@ -4154,25 +4226,27 @@
         <v>9</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="H74" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I74" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="J74" s="8"/>
-    </row>
-    <row r="75" spans="1:11" customFormat="1" ht="160" x14ac:dyDescent="0.2">
+      <c r="I74" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" customFormat="1" ht="176" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>10</v>
@@ -4181,87 +4255,91 @@
         <v>9</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="H75" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="J75" s="12"/>
-    </row>
-    <row r="76" spans="1:11" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K75" s="8"/>
+    </row>
+    <row r="76" spans="1:11" customFormat="1" ht="176" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="H76" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I76" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+      <c r="I76" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+    </row>
+    <row r="77" spans="1:11" customFormat="1" ht="70" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>10</v>
+        <v>99</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I77" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="J77" s="8"/>
-    </row>
-    <row r="78" spans="1:11" customFormat="1" ht="256" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>10</v>
@@ -4270,30 +4348,33 @@
         <v>9</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I78" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" customFormat="1" ht="176" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" customFormat="1" ht="70" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>9</v>
@@ -4302,56 +4383,59 @@
         <v>9</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I79" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K79" s="8"/>
+    </row>
+    <row r="80" spans="1:11" customFormat="1" ht="288" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="H80" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J80" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" customFormat="1" ht="176" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+    </row>
+    <row r="81" spans="1:11" customFormat="1" ht="288" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>10</v>
@@ -4360,94 +4444,96 @@
         <v>9</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="H81" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K81" s="8"/>
-    </row>
-    <row r="82" spans="1:11" customFormat="1" ht="176" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" customFormat="1" ht="70" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="H82" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="1:11" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>8</v>
+        <v>227</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E83" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="H83" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I83" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+      <c r="I83" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" customFormat="1" ht="160" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>141</v>
+        <v>230</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E84" s="13" t="s">
         <v>9</v>
@@ -4456,27 +4542,24 @@
         <v>9</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="H84" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I84" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="J84" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="I84" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" customFormat="1" ht="192" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>144</v>
+        <v>231</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>10</v>
@@ -4488,201 +4571,13 @@
         <v>9</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="H85" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I85" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="J85" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K85" s="8"/>
-    </row>
-    <row r="86" spans="1:11" customFormat="1" ht="288" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>147</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="H86" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I86" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-    </row>
-    <row r="87" spans="1:11" customFormat="1" ht="288" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>150</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="H87" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="J87" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="K87" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" customFormat="1" ht="70" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>153</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="H88" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I88" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-    </row>
-    <row r="89" spans="1:11" customFormat="1" ht="84" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>155</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G89" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="H89" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I89" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" customFormat="1" ht="160" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>158</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G90" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="H90" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I90" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" customFormat="1" ht="208" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>160</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G91" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="H91" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I91" s="12" t="s">
-        <v>161</v>
+      <c r="I85" s="12" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
